--- a/data/inputs/Proyectos_Infraestructura_Cuidado.xlsx
+++ b/data/inputs/Proyectos_Infraestructura_Cuidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Intervencion_Cuidado_IDB/cuidado-rural/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D50312FA-4CE7-4686-9AD0-D9F9EE4B19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59AECFF6-8299-48BA-AC37-3D70C2366AD3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D50312FA-4CE7-4686-9AD0-D9F9EE4B19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D2A0C3-A838-4754-B890-48AB81120CAE}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="900" windowWidth="34560" windowHeight="16240" xr2:uid="{A92084A9-4BEA-4372-A4ED-931F9EF594F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A92084A9-4BEA-4372-A4ED-931F9EF594F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Información proyectoPCS inicial" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Información proyectoPCS inicial'!$A$1:$V$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Propuestas activos evaluadas '!$A$1:$K$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Propuestas activos TCR a nov. '!$A$1:$H$81</definedName>
     <definedName name="CONTRATO">'Información proyectoPCS inicial'!$A$2:$A$82</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -1828,9 +1829,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -1984,19 +1985,19 @@
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2456,30 +2457,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E419C2-36EA-47A6-A825-DBB0DEA9F4D3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1"/>
+    <col min="1" max="1" width="28.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
     <col min="7" max="7" width="35" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13" max="22" width="20.1640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5" style="1"/>
+    <col min="12" max="12" width="27.77734375" style="1" customWidth="1"/>
+    <col min="13" max="22" width="20.109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>57</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>62</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>69</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>77</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>83</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>91</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>104</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>110</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>115</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>119</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>124</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>130</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>134</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>139</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>144</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>149</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>154</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>162</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>167</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>174</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>178</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>185</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>190</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>195</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>201</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>208</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>214</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>219</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>226</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>229</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>233</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>238</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>242</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>246</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>251</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>255</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>259</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>264</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>268</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>273</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>277</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>288</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>293</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>297</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>303</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>307</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>313</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>318</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>323</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>328</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>333</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>337</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>341</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>344</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>349</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>355</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>359</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>364</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>370</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>376</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>381</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>388</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>395</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>401</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>408</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>413</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>418</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>422</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>427</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>430</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>434</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>440</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>445</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>450</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>456</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>461</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>464</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="318" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="318" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>469</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="17" customFormat="1" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" s="17" customFormat="1" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>476</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="17" customFormat="1" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" s="17" customFormat="1" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>481</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="17" customFormat="1" ht="94" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" s="17" customFormat="1" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>484</v>
       </c>
@@ -8461,15 +8461,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V88" xr:uid="{D3E419C2-36EA-47A6-A825-DBB0DEA9F4D3}">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="0"/>
-        <filter val="CAFÉ"/>
-        <filter val="No aplica"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V88" xr:uid="{D3E419C2-36EA-47A6-A825-DBB0DEA9F4D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8477,24 +8469,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9FB11-74E4-4032-9275-07F5A0C37384}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="24" customWidth="1"/>
-    <col min="3" max="5" width="21.5" style="22" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="24" customWidth="1"/>
+    <col min="3" max="5" width="21.44140625" style="22" customWidth="1"/>
     <col min="6" max="6" width="32" style="22" customWidth="1"/>
     <col min="7" max="7" width="25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="22"/>
+    <col min="8" max="8" width="21.44140625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>488</v>
       </c>
@@ -8520,7 +8513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>233</v>
       </c>
@@ -8546,7 +8539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>259</v>
       </c>
@@ -8572,7 +8565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>226</v>
       </c>
@@ -8598,7 +8591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -8624,7 +8617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>134</v>
       </c>
@@ -8650,7 +8643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>476</v>
       </c>
@@ -8676,7 +8669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>242</v>
       </c>
@@ -8702,7 +8695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
@@ -8728,7 +8721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>255</v>
       </c>
@@ -8754,7 +8747,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>91</v>
       </c>
@@ -8780,7 +8773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>264</v>
       </c>
@@ -8806,7 +8799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>130</v>
       </c>
@@ -8832,7 +8825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
@@ -8858,7 +8851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>277</v>
       </c>
@@ -8884,7 +8877,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>341</v>
       </c>
@@ -8910,7 +8903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -8936,7 +8929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -8962,7 +8955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>162</v>
       </c>
@@ -8988,7 +8981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>273</v>
       </c>
@@ -9014,7 +9007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -9040,7 +9033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>251</v>
       </c>
@@ -9066,7 +9059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>388</v>
       </c>
@@ -9092,7 +9085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>214</v>
       </c>
@@ -9144,7 +9137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>349</v>
       </c>
@@ -9170,7 +9163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>364</v>
       </c>
@@ -9196,7 +9189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>413</v>
       </c>
@@ -9222,7 +9215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>461</v>
       </c>
@@ -9248,7 +9241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>427</v>
       </c>
@@ -9274,7 +9267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>519</v>
       </c>
@@ -9300,7 +9293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>293</v>
       </c>
@@ -9326,7 +9319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>430</v>
       </c>
@@ -9352,7 +9345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>328</v>
       </c>
@@ -9378,7 +9371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>238</v>
       </c>
@@ -9404,7 +9397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>395</v>
       </c>
@@ -9430,7 +9423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>333</v>
       </c>
@@ -9456,7 +9449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>208</v>
       </c>
@@ -9482,7 +9475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>288</v>
       </c>
@@ -9508,7 +9501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>323</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>246</v>
       </c>
@@ -9560,7 +9553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>376</v>
       </c>
@@ -9586,7 +9579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -9612,7 +9605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>408</v>
       </c>
@@ -9638,7 +9631,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>124</v>
       </c>
@@ -9664,7 +9657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>154</v>
       </c>
@@ -9690,7 +9683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>110</v>
       </c>
@@ -9716,7 +9709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>83</v>
       </c>
@@ -9742,7 +9735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>303</v>
       </c>
@@ -9768,7 +9761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>434</v>
       </c>
@@ -9794,7 +9787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>450</v>
       </c>
@@ -9820,7 +9813,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -9846,7 +9839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
@@ -9872,7 +9865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -9898,7 +9891,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>370</v>
       </c>
@@ -9924,7 +9917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>355</v>
       </c>
@@ -9950,7 +9943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>481</v>
       </c>
@@ -9976,7 +9969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>201</v>
       </c>
@@ -10002,7 +9995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>178</v>
       </c>
@@ -10028,7 +10021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>268</v>
       </c>
@@ -10054,7 +10047,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>440</v>
       </c>
@@ -10080,7 +10073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>307</v>
       </c>
@@ -10106,7 +10099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>549</v>
       </c>
@@ -10132,7 +10125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>77</v>
       </c>
@@ -10158,7 +10151,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>418</v>
       </c>
@@ -10184,7 +10177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>422</v>
       </c>
@@ -10210,7 +10203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>144</v>
       </c>
@@ -10236,7 +10229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="360" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>464</v>
       </c>
@@ -10262,7 +10255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>469</v>
       </c>
@@ -10288,7 +10281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>318</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>104</v>
       </c>
@@ -10340,7 +10333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>115</v>
       </c>
@@ -10366,7 +10359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>281</v>
       </c>
@@ -10392,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>445</v>
       </c>
@@ -10418,7 +10411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>484</v>
       </c>
@@ -10444,7 +10437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>98</v>
       </c>
@@ -10470,7 +10463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>401</v>
       </c>
@@ -10496,7 +10489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>167</v>
       </c>
@@ -10522,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>337</v>
       </c>
@@ -10548,7 +10541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>174</v>
       </c>
@@ -10574,7 +10567,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -10601,6 +10594,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H81" xr:uid="{01A9FB11-74E4-4032-9275-07F5A0C37384}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="115-2022"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10609,18 +10609,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3325C8E-C989-4377-B85D-0C72B579164F}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>570</v>
       </c>
@@ -10645,7 +10645,7 @@
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="5" t="s">
@@ -10674,7 +10674,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>233</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>259</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>226</v>
       </c>
@@ -10765,7 +10765,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>134</v>
       </c>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>476</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>242</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>255</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>264</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>344</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>277</v>
       </c>
@@ -11102,7 +11102,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>341</v>
       </c>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
@@ -11189,7 +11189,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>162</v>
       </c>
@@ -11218,7 +11218,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>273</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>251</v>
       </c>
@@ -11307,7 +11307,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>388</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>195</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>214</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>349</v>
       </c>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>364</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>413</v>
       </c>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>461</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>427</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>519</v>
       </c>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>293</v>
       </c>
@@ -11601,7 +11601,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>430</v>
       </c>
@@ -11630,7 +11630,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>328</v>
       </c>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>238</v>
       </c>
@@ -11690,7 +11690,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>395</v>
       </c>
@@ -11713,7 +11713,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>333</v>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>208</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>288</v>
       </c>
@@ -11802,7 +11802,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>323</v>
       </c>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>246</v>
       </c>
@@ -11862,7 +11862,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>376</v>
       </c>
@@ -11885,7 +11885,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>408</v>
       </c>
@@ -11943,7 +11943,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>154</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>110</v>
       </c>
@@ -12026,7 +12026,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>83</v>
       </c>
@@ -12057,7 +12057,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>303</v>
       </c>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>434</v>
       </c>
@@ -12111,7 +12111,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>450</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -12163,7 +12163,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -12192,7 +12192,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
@@ -12221,7 +12221,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>370</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>355</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>481</v>
       </c>
@@ -12306,7 +12306,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>201</v>
       </c>
@@ -12331,7 +12331,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>178</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>268</v>
       </c>
@@ -12389,7 +12389,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>440</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>307</v>
       </c>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>549</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>77</v>
       </c>
@@ -12503,7 +12503,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>418</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>422</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>144</v>
       </c>
@@ -12594,7 +12594,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>464</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>469</v>
       </c>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>318</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>104</v>
       </c>
@@ -12724,7 +12724,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>115</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>281</v>
       </c>
@@ -12784,7 +12784,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>445</v>
       </c>
@@ -12813,7 +12813,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>484</v>
       </c>
@@ -12842,7 +12842,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>98</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>167</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>337</v>
       </c>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>174</v>
       </c>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>62</v>
       </c>
@@ -13018,17 +13018,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7766076c5b4407dfa4a29cb2dc7926">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd836aff7d432d14d0dd9befd298821c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d5a17d1a554d55876e000539a76a2c5d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae57f88b4a3fd45965a526b4b96cee99" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="53729c01-e331-46af-8f84-09bea977ed00"/>
     <xsd:import namespace="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
@@ -13062,12 +13066,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Propiedades de la Directiva de cumplimiento unificado" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Acción de IU de la Directiva de cumplimiento unificado" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -13116,7 +13120,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0aef40d5-b715-412d-bec7-270c58122046" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0aef40d5-b715-412d-bec7-270c58122046" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -13160,8 +13164,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -13251,47 +13255,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B7AFAD9-BF18-44BF-9226-7285A9D28C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B09671DD-9038-48C7-B9E3-B05791313A04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
-    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C1201DB-5B9D-40AF-8DE2-142EFF85BC6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13307,4 +13279,16 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B45B7E3-E165-4CF7-B0AA-25D238498570}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B7AFAD9-BF18-44BF-9226-7285A9D28C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>